--- a/log_outliers.xlsx
+++ b/log_outliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,11 +463,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUHO</t>
+          <t>ANCLA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIRCULO</t>
+          <t>BUHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,11 +503,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>CABALLO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -523,11 +523,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FASHION</t>
+          <t>CIRCULO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,11 +543,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIGRE</t>
+          <t>CORONA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -558,60 +558,60 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANILLO DE MUJER</t>
+          <t>ANILLO DE HOMBRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>FASHION</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OTROS ANILLO DE MUJER</t>
+          <t>OTROS ANILLO DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANILLO DE MUJER</t>
+          <t>ANILLO DE HOMBRE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CADENA</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OTROS ANILLO DE MUJER</t>
+          <t>OTROS ANILLO DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANILLO DE MUJER</t>
+          <t>ANILLO DE HOMBRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE LA MADRE</t>
+          <t>VIRGEN DE GUADALUPE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OTROS ANILLO DE MUJER</t>
+          <t>OTROS ANILLO DE HOMBRE</t>
         </is>
       </c>
     </row>
@@ -623,11 +623,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE LA SUERTE</t>
+          <t>100 A DE MUJER</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -643,11 +643,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DECENARIO</t>
+          <t>AVISPA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GIRATORIO</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -683,11 +683,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOJA</t>
+          <t>DE LA MADRE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -703,11 +703,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOÑO</t>
+          <t>DE LA SUERTE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -723,11 +723,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NUMEROS ROMANOS</t>
+          <t>DECENARIO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -743,11 +743,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OJO</t>
+          <t>GIRATORIO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PANTERA</t>
+          <t>HOJA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -783,11 +783,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RELIGIOSO</t>
+          <t>MOÑO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SIGNO VIRGO</t>
+          <t>NUMEROS ROMANOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -823,11 +823,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TREBOL</t>
+          <t>OJO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRIANGULO</t>
+          <t>PANTERA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -858,32 +858,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANILLO NOVIA PIEDRAS LATERALES</t>
+          <t>ANILLO DE MUJER</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BELLA</t>
+          <t>RELIGIOSO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OTROS ANILLO NOVIA PIEDRAS LATERALES</t>
+          <t>OTROS ANILLO DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANILLO NOVIA SOLITARIO</t>
+          <t>ANILLO DE MUJER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GRACE</t>
+          <t>SIGNO VIRGO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -891,19 +891,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OTROS ANILLO NOVIA SOLITARIO</t>
+          <t>OTROS ANILLO DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ANILLO NOVIA SOLITARIO</t>
+          <t>ANILLO DE MUJER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAB ISA</t>
+          <t>TREBOL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -911,59 +911,59 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OTROS ANILLO NOVIA SOLITARIO</t>
+          <t>OTROS ANILLO DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARETE CORTO</t>
+          <t>ANILLO DE MUJER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AVEJA</t>
+          <t>TRIANGULO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OTROS ARETE CORTO</t>
+          <t>OTROS ANILLO DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARETE CORTO</t>
+          <t>ANILLO NOVIA PIEDRAS LATERALES</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOLITAS</t>
+          <t>GRACE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OTROS ARETE CORTO</t>
+          <t>OTROS ANILLO NOVIA PIEDRAS LATERALES</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARETE CORTO</t>
+          <t>ANILLO NOVIA SOLITARIO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CARTONEADO REDONDO</t>
+          <t>GRACE</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -971,19 +971,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OTROS ARETE CORTO</t>
+          <t>OTROS ANILLO NOVIA SOLITARIO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARETE CORTO</t>
+          <t>ANILLO NOVIA SOLITARIO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHANDELIER</t>
+          <t>LAB ISA</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OTROS ARETE CORTO</t>
+          <t>OTROS ANILLO NOVIA SOLITARIO</t>
         </is>
       </c>
     </row>
@@ -1003,11 +1003,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>AVEJA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DELFIN</t>
+          <t>BOLITAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HONGO</t>
+          <t>CARTONEADO REDONDO</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LIBELULA</t>
+          <t>CHANDELIER</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MEDIA BOLA</t>
+          <t>CORONA</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RANA</t>
+          <t>DELFIN</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1123,11 +1123,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TREBOL</t>
+          <t>HONGO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1138,12 +1138,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ARETE LARGO</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CON OJO</t>
+          <t>LIBELULA</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1151,79 +1151,79 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OTROS ARETE LARGO</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ARETE LARGO</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARIPOSA</t>
+          <t>MEDIA BOLA</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OTROS ARETE LARGO</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ARETE LARGO</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ROMBO</t>
+          <t>NUMEROS ROMANOS</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OTROS ARETE LARGO</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ARETE LARGO</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TREBOL</t>
+          <t>PERLA ARETE LARGO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OTROS ARETE LARGO</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ARRACADA</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CALADAS</t>
+          <t>RANA</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1231,59 +1231,59 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OTROS ARRACADA</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ARRACADA</t>
+          <t>ARETE CORTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CAMARON</t>
+          <t>TREBOL</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OTROS ARRACADA</t>
+          <t>OTROS ARETE CORTO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BRAZALETE RÍGIDO</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ALTO BRAZALETE</t>
+          <t>100 ARETE LARGO</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OTROS BRAZALETE RÍGIDO</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BRAZALETE RÍGIDO</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PANTERA</t>
+          <t>CON OJO</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1291,59 +1291,59 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>OTROS BRAZALETE RÍGIDO</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BRAZALETE RÍGIDO</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VIBORA</t>
+          <t>FILIGRANA</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OTROS BRAZALETE RÍGIDO</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ANGEL</t>
+          <t>MARIPOSA</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CEREZA</t>
+          <t>ROMBO</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1351,99 +1351,99 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>ARETE LARGO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DELFIN</t>
+          <t>TREBOL</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS ARETE LARGO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>ARRACADA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ELEFANTE</t>
+          <t>CALADAS</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS ARRACADA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>ARRACADA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ESFERA</t>
+          <t>CAMARON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS ARRACADA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>BRAZALETE RÍGIDO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HONGO</t>
+          <t>ALTO BRAZALETE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS BRAZALETE RÍGIDO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>BRAZALETE RÍGIDO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LLAVE</t>
+          <t>PANTERA</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1451,27 +1451,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS BRAZALETE RÍGIDO</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BROQUEL</t>
+          <t>BRAZALETE RÍGIDO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>VIBORA</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OTROS BROQUEL</t>
+          <t>OTROS BRAZALETE RÍGIDO</t>
         </is>
       </c>
     </row>
@@ -1483,11 +1483,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MEDIO BROQUEL</t>
+          <t>ANGEL</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PATINES</t>
+          <t>CEREZA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RECTANGULO</t>
+          <t>DELFIN</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ROMBO</t>
+          <t>ELEFANTE</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1563,11 +1563,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRIANGULO</t>
+          <t>ESFERA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1578,32 +1578,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CADENA</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUADRITOS</t>
+          <t>HONGO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>OTROS CADENA</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CADENA</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DOBLE ROMBO PAVE</t>
+          <t>LLAVE</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1611,19 +1611,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OTROS CADENA</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CADENA</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FIGARO TORSAL</t>
+          <t>LUNA</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OTROS CADENA</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CADENA</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HUECA BARBADO</t>
+          <t>MEDIO BROQUEL</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1651,79 +1651,79 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OTROS CADENA</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHURUMBELA</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INVISIBLE</t>
+          <t>NIÑO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>OTROS CHURUMBELA</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CRISTO</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANCLA</t>
+          <t>PATINES</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>OTROS CRISTO</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CLAVO</t>
+          <t>RECTANGULO</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CRUZ CON ESPIRITU SA</t>
+          <t>ROMBO</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1731,19 +1731,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>BROQUEL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CRUZ CON MANTO</t>
+          <t>TRIANGULO</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1751,199 +1751,199 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS BROQUEL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EGIPCIA</t>
+          <t>BIZANTINA</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PANTERA</t>
+          <t>CUADRITOS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>DOBLE ROMBO PAVE</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SAN BENITO</t>
+          <t>FIGARO TORSAL</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SUIZA</t>
+          <t>HUECA BARBADO</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OTROS CRUZ</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ABEJA</t>
+          <t>HUECA FIGARO</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AGUILA</t>
+          <t>PANZA VIVORA</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CADENA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ALACRAN</t>
+          <t>TWIST</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CADENA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CHURUMBELA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANCLA</t>
+          <t>INVISIBLE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CHURUMBELA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRISTO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ANGEL</t>
+          <t>ANCLA</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1951,59 +1951,59 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRISTO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRISTO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ARBOL LIBANES</t>
+          <t>PANTERA</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRISTO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AVION</t>
+          <t>CLAVO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOLSA</t>
+          <t>CRUZ CON ESPIRITU SA</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2011,19 +2011,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CABALLO DE MAR</t>
+          <t>CRUZ CON MANTO</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2031,19 +2031,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CATARINA</t>
+          <t>EGIPCIA</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2051,79 +2051,79 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CEDRO LIBANES</t>
+          <t>PANTERA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CONEJO</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>SAN BENITO</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DIJE</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUADRADO</t>
+          <t>SUIZA</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OTROS DIJE</t>
+          <t>OTROS CRUZ</t>
         </is>
       </c>
     </row>
@@ -2143,11 +2143,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DE LA MADRE</t>
+          <t>100 DIJE</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DE LA SUERTE</t>
+          <t>ABEJA</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2183,11 +2183,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ESPADA</t>
+          <t>AGUILA</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2203,11 +2203,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ESPIRITU SANTO</t>
+          <t>ALACRAN</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ESTRELLA DE DAVID</t>
+          <t>ANCLA</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FLOR DE LIS</t>
+          <t>ANGEL</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GALLO</t>
+          <t>ARBOL LIBANES</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2283,11 +2283,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GUITARRA</t>
+          <t>AVION</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HADA</t>
+          <t>BOLSA</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JAGUAR</t>
+          <t>CABALLO DE MAR</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2343,11 +2343,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JIRAFA</t>
+          <t>CATARINA</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>CEDRO LIBANES</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2383,11 +2383,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>CONEJO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MARTILLO</t>
+          <t>CORONA</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MEDICINA</t>
+          <t>CUADRADO</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NOTA MUSICAL</t>
+          <t>DE LA MADRE</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>OJO</t>
+          <t>DE LA SUERTE</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PERLA DIJE</t>
+          <t>DRAGON</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PERSO DIJE</t>
+          <t>ESPADA</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PESCADO</t>
+          <t>ESPIRITU SANTO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>QUINCEAÑERA</t>
+          <t>ESTRELLA DE DAVID</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2563,11 +2563,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RECTANGULO</t>
+          <t>FLOR DE LIS</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>REY DE CORAZONES</t>
+          <t>GALLO</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2603,11 +2603,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>GUITARRA</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SANTA MUERTE</t>
+          <t>HADA</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2643,11 +2643,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TETRAGRAMATON</t>
+          <t>HERRADURA</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2663,11 +2663,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TIBURON</t>
+          <t>HONGO</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2683,11 +2683,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TORTUGA</t>
+          <t>INCIAL N</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>VIBORA</t>
+          <t>JAGUAR</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>VIRGEN MILAGROSA</t>
+          <t>JIRAFA</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>LOVE</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2751,39 +2751,39 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOLA</t>
+          <t>LUNA</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BOLEADO PARA MONEDA</t>
+          <t>MARTILLO</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2791,79 +2791,79 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>MEDICINA</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>NOMBRE</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LIBELULA</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MEDIO DIJE Y ARETES</t>
+          <t>NOTA MUSICAL</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2871,59 +2871,59 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DIJE Y ARETES</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>OJO</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>OTROS DIJE Y ARETES</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ANCLA</t>
+          <t>PERLA DIJE</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BISMARK</t>
+          <t>PERSO DIJE</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2931,19 +2931,19 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BIZANTINO</t>
+          <t>PESCADO</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2951,139 +2951,139 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CLIP</t>
+          <t>QUINCEAÑERA</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DOBLE ROMBO</t>
+          <t>RECTANGULO</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ESPIGA</t>
+          <t>REY DE CORAZONES</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FASHION</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRANCO</t>
+          <t>RULETA</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>HUECA BARBADA</t>
+          <t>SANTA MUERTE</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>HUECA FIGARO</t>
+          <t>TETRAGRAMATON</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>HUECA MARINERA</t>
+          <t>TIBURON</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3111,39 +3111,39 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>HUECA TORSAL</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RADA</t>
+          <t>TORTUGA</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3151,19 +3151,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ESCLAVA DE HOMBRE</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ROLO</t>
+          <t>VIBORA</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3171,19 +3171,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE HOMBRE</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>100 E DE MUJER</t>
+          <t>VIRGEN MILAGROSA</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3191,39 +3191,39 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BARBADO CON PAVE</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CHINO</t>
+          <t>BOLA</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3231,19 +3231,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CHINO CON FIGURAS</t>
+          <t>BOLEADO PARA MONEDA</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3251,79 +3251,79 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CON ARBOL DE LA VIDA</t>
+          <t>CORONA</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DECENARIO</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ESPIGA</t>
+          <t>LIBELULA</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>HUECA TIPO BARBADA</t>
+          <t>MEDIO DIJE Y ARETES</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3331,59 +3331,59 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>DIJE Y ARETES</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>HUECA TIPO TORSAL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS DIJE Y ARETES</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MARINERA CON PAVE</t>
+          <t>ANCLA</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NIÑOS</t>
+          <t>BISMARK</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3391,19 +3391,19 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PALOMA PICASSO</t>
+          <t>BIZANTINO</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3411,39 +3411,39 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>QUINCE AÑOS</t>
+          <t>CLIP</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ESCLAVA DE MUJER</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SINGAPUR</t>
+          <t>DOBLE ROMBO</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3451,39 +3451,39 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE MUJER</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ESCLAVA DE NIÑO</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BARBADO CON PAVE</t>
+          <t>ESPIGA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE NIÑO</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ESCLAVA DE NIÑO</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MARINERA CON FIGARO</t>
+          <t>FASHION</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3491,19 +3491,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE NIÑO</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ESCLAVA DE NIÑO</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MARINERA CON PAVE</t>
+          <t>FRANCO</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3511,39 +3511,39 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE NIÑO</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ESCLAVA DE NIÑO</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RELIGIOSA</t>
+          <t>HUECA BARBADA</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE NIÑO</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ESCLAVA DE NIÑO</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>HUECA FIGARO</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3551,19 +3551,19 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>OTROS ESCLAVA DE NIÑO</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CON DELFIN</t>
+          <t>HUECA MARINERA</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3571,39 +3571,39 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CON DIJE CUADRO</t>
+          <t>HUECA TORSAL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CON GATO</t>
+          <t>RADA</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3611,19 +3611,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE HOMBRE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CON NIÑOS</t>
+          <t>ROLO</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3631,99 +3631,99 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE HOMBRE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CON VIBORA</t>
+          <t>100 E DE MUJER</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>BARBADO CON PAVE</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DE LA MADRE</t>
+          <t>CHINO</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DE LA SUERTE</t>
+          <t>CHINO CON FIGURAS</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MANO DE FATIMA</t>
+          <t>CON ARBOL DE LA VIDA</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3731,59 +3731,59 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OJO</t>
+          <t>DECENARIO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>OMEGA DOS VISTAS</t>
+          <t>ESPIGA</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>OMEGA UNA VISTA</t>
+          <t>HUECA TIPO BARBADA</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3791,59 +3791,59 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PALOMA PICASSO</t>
+          <t>HUECA TIPO TORSAL</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PANTERA</t>
+          <t>MARINERA CON PAVE</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TEGIDO CHINO</t>
+          <t>NIÑOS</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3851,19 +3851,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GARGANTILLA CON O SIN DIJE</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TEGIDO PANTERA</t>
+          <t>PALOMA PICASSO</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3871,19 +3871,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GARGANTILLA Y ARETES</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CORONA</t>
+          <t>QUINCE AÑOS</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3891,19 +3891,19 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA Y ARETES</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GARGANTILLA Y ARETES</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>INFINITO</t>
+          <t>SINGAPUR</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3911,79 +3911,79 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA Y ARETES</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GARGANTILLA Y ARETES</t>
+          <t>ESCLAVA DE MUJER</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>OJOS</t>
+          <t>TREBOL</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA Y ARETES</t>
+          <t>OTROS ESCLAVA DE MUJER</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GARGANTILLA Y ARETES</t>
+          <t>ESCLAVA DE NIÑO</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PANTERA</t>
+          <t>BARBADO CON PAVE</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>OTROS GARGANTILLA Y ARETES</t>
+          <t>OTROS ESCLAVA DE NIÑO</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HUGGIE</t>
+          <t>ESCLAVA DE NIÑO</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>MARINERA CON FIGARO</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>OTROS HUGGIE</t>
+          <t>OTROS ESCLAVA DE NIÑO</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>ESCLAVA DE NIÑO</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ANGEL</t>
+          <t>MARINERA CON PAVE</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3991,125 +3991,765 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS ESCLAVA DE NIÑO</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>ESCLAVA DE NIÑO</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DIVINO NIÑO</t>
+          <t>RELIGIOSA</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS ESCLAVA DE NIÑO</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>ESCLAVA DE NIÑO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ESCAP VFAT SAGRADO</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS ESCLAVA DE NIÑO</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ESCAP VIRGEN SAGRADO</t>
+          <t>CON ATRAPASUEÑOS</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NTA SRA DEL CARMEN</t>
+          <t>CON DELFIN</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MEDALLA</t>
+          <t>GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PRIMERA COMUNION</t>
+          <t>CON DIJE CUADRO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>OTROS MEDALLA</t>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CON DIJE HADA</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CON GATO</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CON NIÑOS</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CON VIBORA</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CORBATA</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CORONA</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DE LA MADRE</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DE LA SUERTE</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FILIGRANA</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MANO DE FATIMA</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>OJO</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>OMEGA DOS VISTAS</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>OMEGA UNA VISTA</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>PALOMA PICASSO</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PANTERA</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PLANA</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>RIGIDA</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TEGIDO CHINO</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TEGIDO PANTERA</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA CON O SIN DIJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>CORONA</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FILIGRANA</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>INFINITO</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>OJOS</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>PANTERA</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>RECTANGULO</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>OTROS GARGANTILLA Y ARETES</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HUGGIE</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>4</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>OTROS HUGGIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
           <t>MEDALLA</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ANGEL</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>DIVINO NIÑO</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ESCAP VFAT SAGRADO</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>3</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ESCAP VIRGEN SAGRADO</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NTA SRA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>PRIMERA COMUNION</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>OTROS MEDALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MEDALLA</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
         <is>
           <t>SANTO NIÑO</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" t="inlineStr">
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>OTROS MEDALLA</t>
         </is>
